--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\woniuboss\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C8193-2C9C-471F-99F3-DE22701C2784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166B506-7D57-4C03-B2B6-C350392F1093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="20184" windowHeight="9576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -96,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +118,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -637,4 +643,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\testing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166B506-7D57-4C03-B2B6-C350392F1093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E4006-B890-4123-84CB-CE04EC8FC8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="course" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -91,17 +91,306 @@
     <t>username=WNCD000
 password=
 verifycode=0000</t>
+  </si>
+  <si>
+    <t>add_001</t>
+  </si>
+  <si>
+    <t>add-success</t>
+  </si>
+  <si>
+    <t>add_002</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>query-success</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>course_arrangement_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_course_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_query_course_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-17
+end_time=2020-05-24
+teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我是谁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classroom=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">教室一
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classcode=WNCDC002
+course=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段-第三周-Linux操作系统</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-25
+end_time=2020-06-02
+teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我是谁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classroom=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">教室一
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classcode=WNCDC002
+course=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段-第四周-Python编程基础</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>campus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">成都
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我是谁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>specialty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+start_time=
+end_time=</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>campus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">成都
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>specialty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+start_time=
+end_time=</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -126,6 +415,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,12 +442,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,7 +961,7 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -647,13 +969,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <cols>
+    <col min="2" max="3" width="23.09765625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="42" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="74.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="74.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E4006-B890-4123-84CB-CE04EC8FC8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66600C92-FA2A-4AE1-96CD-6F9E833D475F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66600C92-FA2A-4AE1-96CD-6F9E833D475F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892342EF-415E-44D7-8028-84CBFB7D3903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -124,124 +124,6 @@
   </si>
   <si>
     <r>
-      <t>start_time=2020-05-17
-end_time=2020-05-24
-teacher=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">我是谁
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>classroom=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">教室一
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>classcode=WNCDC002
-course=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第一阶段-第三周-Linux操作系统</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>start_time=2020-05-25
-end_time=2020-06-02
-teacher=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">我是谁
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>classroom=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">教室一
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>classcode=WNCDC002
-course=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第一阶段-第四周-Python编程基础</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>campus=</t>
     </r>
     <r>
@@ -371,6 +253,300 @@
       <t xml:space="preserve">
 start_time=
 end_time=</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_alter_course_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_js=document.querySelector(\"#addcourse &gt; div.row &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
+start_time=2020-05-17
+end_time=2020-05-24
+teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我是谁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classroom=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">教室一
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classcode=WNCDC002
+course=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段-第三周-Linux操作系统</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_js=document.querySelector(\"#addcourse &gt; div.row &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
+start_time=2020-05-25
+end_time=2020-06-02
+teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我是谁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classroom=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">教室一
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>classcode=WNCDC002
+course=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段-第四周-Python编程基础</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
+start_time=2020-05-25
+end_time=2020-06-02
+teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是谁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+classroom=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+classcode=WNCDC005
+course=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第五周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter-success</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
+start_time=2020-05-25
+end_time=2020-06-02
+teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是谁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+classroom=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+classcode=WNCDC009
+course=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二阶段-第五周-WoniuShop项目</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -442,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,6 +651,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1017,13 +1197,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>21</v>
@@ -1057,7 +1237,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
@@ -1077,10 +1257,50 @@
         <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892342EF-415E-44D7-8028-84CBFB7D3903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF63887-B01E-4F75-91B5-A78AAF4C9663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="course" sheetId="2" r:id="rId2"/>
+    <sheet name="interview" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -547,6 +548,90 @@
         <charset val="134"/>
       </rPr>
       <t>第二阶段-第五周-WoniuShop项目</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>outcome=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">优
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>善于表达</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical_interview_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_interview_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>outcome=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础知识不扎实</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -555,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +681,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1151,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1308,4 +1400,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39003EF-905B-41AF-B38C-2A764DF8C6BD}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" customWidth="1"/>
+    <col min="5" max="5" width="33.8984375" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF63887-B01E-4F75-91B5-A78AAF4C9663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00E4D06-6771-4AE8-819C-712FC7B5143D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="course" sheetId="2" r:id="rId2"/>
     <sheet name="interview" sheetId="3" r:id="rId3"/>
+    <sheet name="duty" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -632,6 +633,68 @@
         <charset val="134"/>
       </rPr>
       <t>基础知识不扎实</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_on_duty_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_duty_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">我是谁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
+duty_time=2020-05-20</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">佛祖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
+duty_time=2020-05-21</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1406,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39003EF-905B-41AF-B38C-2A764DF8C6BD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1484,4 +1547,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB83376-AB72-4CE7-8C26-7425DC216C5E}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00E4D06-6771-4AE8-819C-712FC7B5143D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478113A-3982-41A9-BFD1-829A1D45C76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -695,6 +695,75 @@
       </rPr>
       <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
 duty_time=2020-05-21</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter_004</t>
+  </si>
+  <si>
+    <t>do_alter_duty_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter-success</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">江鸟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
+duty_time=2020-03-11</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">吴用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
+duty_time=2020-04-30</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1306,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB83376-AB72-4CE7-8C26-7425DC216C5E}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1626,6 +1695,46 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478113A-3982-41A9-BFD1-829A1D45C76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9D299-9818-4AB5-980C-8016259528F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="course" sheetId="2" r:id="rId2"/>
     <sheet name="interview" sheetId="3" r:id="rId3"/>
     <sheet name="duty" sheetId="4" r:id="rId4"/>
+    <sheet name="overtime" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -764,6 +765,170 @@
       </rPr>
       <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
 duty_time=2020-04-30</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>application_for_extra_work_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_overtime_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-10 09:30
+end_time=2020-05-10 18:30
+accounting=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">结算工资
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hours=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">小时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>region=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+reason=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出去旅游世界太大我想去看看</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-20 08:30
+end_time=2020-05-20 20:30
+accounting=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">结算工资
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hours=8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">小时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>region=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+reason=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回老家吃小龙虾校长要不要给你带点</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1376,7 +1541,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1622,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB83376-AB72-4CE7-8C26-7425DC216C5E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1796,7 @@
     <col min="2" max="2" width="23.8984375" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="19.3984375" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="64.5" customWidth="1"/>
     <col min="6" max="6" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1655,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1675,7 +1840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="83.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -1734,6 +1899,93 @@
       <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A42715-6DB5-4D44-8227-1BC083C77DCE}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.8984375" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="88" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/data/woniuboss4.0_case_huang.xlsx
+++ b/data/woniuboss4.0_case_huang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\torgit\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9D299-9818-4AB5-980C-8016259528F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136DB4C5-F610-461E-9D7E-D7D25CEEE413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -272,9 +272,283 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>start_js=document.querySelector(\"#addcourse &gt; div.row &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
-start_time=2020-05-17
+    <t>alter-success</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>outcome=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">优
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>善于表达</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical_interview_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_interview_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>outcome=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础知识不扎实</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_on_duty_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_duty_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter_004</t>
+  </si>
+  <si>
+    <t>do_alter_duty_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter-success</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>application_for_extra_work_cases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_add_overtime_test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-10 09:30
+end_time=2020-05-10 18:30
+accounting=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">结算工资
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hours=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">小时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>region=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+reason=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出去旅游世界太大我想去看看</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-20 08:30
+end_time=2020-05-20 20:30
+accounting=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">结算工资
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hours=8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">小时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>region=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+reason=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回老家吃小龙虾校长要不要给你带点</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_time=2020-05-17
 end_time=2020-05-24
 teacher=</t>
     </r>
@@ -333,8 +607,7 @@
   </si>
   <si>
     <r>
-      <t>start_js=document.querySelector(\"#addcourse &gt; div.row &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
-start_time=2020-05-25
+      <t>start_time=2020-05-25
 end_time=2020-06-02
 teacher=</t>
     </r>
@@ -393,8 +666,7 @@
   </si>
   <si>
     <r>
-      <t>start_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
-start_time=2020-05-25
+      <t>start_time=2020-05-25
 end_time=2020-06-02
 teacher=</t>
     </r>
@@ -490,13 +762,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>alter-success</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>start_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(1) &gt; input\") end_js=document.querySelector(\"#modifyCourseForm &gt; div &gt; div &gt; div:nth-child(2) &gt; input\")
-start_time=2020-05-25
+    <r>
+      <t>start_time=2020-05-25
 end_time=2020-06-02
 teacher=</t>
     </r>
@@ -555,7 +822,7 @@
   </si>
   <si>
     <r>
-      <t>outcome=</t>
+      <t>teacher=</t>
     </r>
     <r>
       <rPr>
@@ -565,7 +832,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">优
+      <t xml:space="preserve">吴用
 </t>
     </r>
     <r>
@@ -575,7 +842,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>evaluate=</t>
+      <t>duty_time=2020-04-30</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teacher=</t>
     </r>
     <r>
       <rPr>
@@ -585,25 +858,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>善于表达</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>technical_interview_cases</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_add_interview_test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>outcome=</t>
+      <t xml:space="preserve">江鸟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>duty_time=2020-03-11</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teacher=</t>
     </r>
     <r>
       <rPr>
@@ -613,7 +884,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">中
+      <t xml:space="preserve">佛祖
 </t>
     </r>
     <r>
@@ -623,26 +894,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>evaluate=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基础知识不扎实</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_on_duty_cases</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_add_duty_test</t>
+      <t>duty_time=2020-05-21</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -667,268 +920,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
-duty_time=2020-05-20</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>teacher=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">佛祖
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
-duty_time=2020-05-21</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter_003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter_004</t>
-  </si>
-  <si>
-    <t>do_alter_duty_test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter-success</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>teacher=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">江鸟
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
-duty_time=2020-03-11</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>teacher=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">吴用
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>time_js=document.querySelector("#addDuty-table &gt; tr &gt; td:nth-child(2) &gt; input")
-duty_time=2020-04-30</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>application_for_extra_work_cases</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_add_overtime_test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>start_time=2020-05-10 09:30
-end_time=2020-05-10 18:30
-accounting=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">结算工资
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hours=2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">小时
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>region=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-reason=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出去旅游世界太大我想去看看</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>start_time=2020-05-20 08:30
-end_time=2020-05-20 20:30
-accounting=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">结算工资
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hours=8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">小时
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>region=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-reason=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回老家吃小龙虾校长要不要给你带点</t>
+      <t>duty_time=2020-05-20</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1540,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A6EE2-B6CB-4035-91E6-069CF874E712}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="88.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1586,13 +1578,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="88.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1598,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>21</v>
@@ -1652,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="88.2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1666,13 +1658,13 @@
         <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="143.4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="88.2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
@@ -1686,10 +1678,10 @@
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1696,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1741,16 +1733,16 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -1758,19 +1750,19 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -1788,7 +1780,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1820,84 +1812,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1911,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A42715-6DB5-4D44-8227-1BC083C77DCE}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1949,16 +1941,16 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -1966,19 +1958,19 @@
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
